--- a/創客研習證明.xlsx
+++ b/創客研習證明.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\pymail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862AACD4-E0C5-4306-9BDD-8EE575127151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE19AE00-E906-435A-AFC5-2721B61CCCEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="135" yWindow="240" windowWidth="17895" windowHeight="15825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,25 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>參加人姓名</t>
-  </si>
-  <si>
-    <t>參加人Email</t>
-  </si>
-  <si>
-    <t>序號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黃光渠</t>
-  </si>
-  <si>
-    <t>黃延儒</t>
-  </si>
-  <si>
-    <t>曾彥賀</t>
   </si>
   <si>
     <t>meeinoffice@gmail.com</t>
@@ -50,6 +34,63 @@
   </si>
   <si>
     <t>meebox@livemail.tw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>參加人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+  </si>
+  <si>
+    <t>字號</t>
+  </si>
+  <si>
+    <t>活動名稱</t>
+  </si>
+  <si>
+    <t>年</t>
+  </si>
+  <si>
+    <t>月</t>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t>時數</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ChatGPT×LINE bot </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>聊天機器人開發實戰</t>
+    </r>
+  </si>
+  <si>
+    <t>黃小儒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃大渠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾明明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -57,7 +98,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -87,18 +128,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4682B4"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -130,17 +172,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -456,61 +498,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="5" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="3"/>
+    <col min="4" max="4" width="43.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="2">
+        <v>111092</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2">
+        <v>111</v>
+      </c>
+      <c r="F2" s="2">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2">
+        <v>26</v>
+      </c>
+      <c r="H2" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="C3" s="2">
+        <v>111093</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2">
+        <v>111</v>
+      </c>
+      <c r="F3" s="2">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2">
+        <v>26</v>
+      </c>
+      <c r="H3" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4">
-        <v>111092</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4">
-        <v>111093</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>111094</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2">
+        <v>111</v>
+      </c>
+      <c r="F4" s="2">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2">
+        <v>26</v>
+      </c>
+      <c r="H4" s="2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
